--- a/storage/app/template/domestic_template.xlsx
+++ b/storage/app/template/domestic_template.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tareqfawakhiri/Desktop/SCBackend/storage/app/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C694A71-8D2A-7240-B3B1-6DB8E5E04709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2234EA6B-2212-4F46-B8EF-FA58E26FF287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{D175885D-846A-344B-9AAF-D2DA433ABFC3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,9 +33,50 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>Shipper name</t>
+  </si>
+  <si>
+    <t>Shipper phone</t>
+  </si>
+  <si>
+    <t>Consignee name</t>
+  </si>
+  <si>
+    <t>Phone Number</t>
+  </si>
+  <si>
+    <t>Secondary Phone Number</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Detailed Address</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Shipment content</t>
+  </si>
+  <si>
+    <t>Pieces</t>
+  </si>
+  <si>
+    <t>COD</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -43,13 +84,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -64,8 +117,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,12 +437,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{039C7ACE-98CF-1D4E-8582-67811563032C}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>